--- a/Classes/Class_4/Survey_Exp_Questionnaire.xlsx
+++ b/Classes/Class_4/Survey_Exp_Questionnaire.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonny\Google Drive\Academic\USP\Teaching\FLS6441 - Methods III\Website\Methods_III\Classes\Class_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D80636-DEEA-4CB8-A627-B6BBECC1567C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B28638-9320-4CD7-AFC9-EF9749B05D7F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="339" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="choices" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="127">
   <si>
     <t>type</t>
   </si>
@@ -179,12 +178,6 @@
     <t>Rio Grande do Sul</t>
   </si>
   <si>
-    <t>framing</t>
-  </si>
-  <si>
-    <t>Town A has only half the income of Town B, and the gap is widening. The government proposes to transfer a small amount of income from Town A to Town B to reduce inequality. How much do you think would be a fair tax on Town A's income?</t>
-  </si>
-  <si>
     <t>select_one tax</t>
   </si>
   <si>
@@ -212,9 +205,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>vote2</t>
-  </si>
-  <si>
     <t>There are good reasons to be hopeful for democracy: More people voted than ever before in the 2018 election, suggesting strong citizen participation in democracy. Did you vote in 2018?</t>
   </si>
   <si>
@@ -225,9 +215,6 @@
   </si>
   <si>
     <t>select_one reform</t>
-  </si>
-  <si>
-    <t>support_reform</t>
   </si>
   <si>
     <t>reform</t>
@@ -328,6 +315,108 @@
   </si>
   <si>
     <t>random_list</t>
+  </si>
+  <si>
+    <t>random_prime</t>
+  </si>
+  <si>
+    <t>${random_prime}&lt;0.5</t>
+  </si>
+  <si>
+    <t>${random_prime}&gt;=0.5</t>
+  </si>
+  <si>
+    <t>prime_hope</t>
+  </si>
+  <si>
+    <t>prime_fear</t>
+  </si>
+  <si>
+    <t>frame_20</t>
+  </si>
+  <si>
+    <t>frame_80</t>
+  </si>
+  <si>
+    <t>random_frame</t>
+  </si>
+  <si>
+    <t>${random_frame}&lt;0.5</t>
+  </si>
+  <si>
+    <t>${random_frame}&gt;=0.5</t>
+  </si>
+  <si>
+    <t>prime_question</t>
+  </si>
+  <si>
+    <t>Town A has only 80% of the income of Town B, and the gap is widening. The government proposes to transfer income from Town A to Town B to reduce inequality. How much do you think would be a fair tax on Town A's income?</t>
+  </si>
+  <si>
+    <t>Town A has only 20% of the income of Town B, and the gap is widening. The government proposes to transfer income from Town A to Town B to reduce inequality. How much do you think would be a fair tax on Town A's income?</t>
+  </si>
+  <si>
+    <t>conjoint_1</t>
+  </si>
+  <si>
+    <t>conjoint_2</t>
+  </si>
+  <si>
+    <t>conjoint_3</t>
+  </si>
+  <si>
+    <t>conjoint_4</t>
+  </si>
+  <si>
+    <t>select_one candidates</t>
+  </si>
+  <si>
+    <t>candidates</t>
+  </si>
+  <si>
+    <t>candidate_A</t>
+  </si>
+  <si>
+    <t>candidate_B</t>
+  </si>
+  <si>
+    <t>Candidate A</t>
+  </si>
+  <si>
+    <t>Candidate B</t>
+  </si>
+  <si>
+    <t>Which candidate would you vote for?</t>
+  </si>
+  <si>
+    <t>media::image</t>
+  </si>
+  <si>
+    <t>conjoint_1.jpg</t>
+  </si>
+  <si>
+    <t>conjoint_2.jpg</t>
+  </si>
+  <si>
+    <t>conjoint_3.jpg</t>
+  </si>
+  <si>
+    <t>conjoint_4.jpg</t>
+  </si>
+  <si>
+    <t>random_conjoint</t>
+  </si>
+  <si>
+    <t>${random_conjoint}&lt;0.25</t>
+  </si>
+  <si>
+    <t>${random_conjoint}&gt;=0.25 &amp; ${random_conjoint}&lt;0.5</t>
+  </si>
+  <si>
+    <t>${random_conjoint}&gt;=0.5 &amp; ${random_conjoint}&lt;0.75</t>
+  </si>
+  <si>
+    <t>${random_conjoint}&gt;=0.75</t>
   </si>
 </sst>
 </file>
@@ -371,7 +460,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -383,6 +472,9 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -775,14 +867,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A350" sqref="A350:D351"/>
       <selection pane="topRight" activeCell="A350" sqref="A350:D351"/>
       <selection pane="bottomLeft" activeCell="A350" sqref="A350:D351"/>
-      <selection pane="bottomRight" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomRight" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7265625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -799,7 +891,7 @@
     <col min="11" max="12" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -833,8 +925,11 @@
       <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="L1" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -842,7 +937,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -850,7 +945,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -858,7 +953,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -866,7 +961,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -874,7 +969,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -888,147 +983,271 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="50" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" t="s">
+        <v>100</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="62.5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" t="s">
+        <v>92</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="87.5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="50" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="62.5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B14" t="s">
-        <v>96</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="87.5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="C18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" t="s">
         <v>85</v>
       </c>
-      <c r="B15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="112.5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="C21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="I21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" t="s">
+        <v>122</v>
+      </c>
+      <c r="J22" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="I17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I18" t="s">
-        <v>93</v>
-      </c>
+    </row>
+    <row r="23" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I23" t="s">
+        <v>123</v>
+      </c>
+      <c r="L23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I24" t="s">
+        <v>124</v>
+      </c>
+      <c r="L24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I25" t="s">
+        <v>125</v>
+      </c>
+      <c r="L25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I26" t="s">
+        <v>126</v>
+      </c>
+      <c r="L26" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="4"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -1044,9 +1263,9 @@
   <dimension ref="A1:C114"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A350" sqref="A350:D351"/>
-      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
+      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.7265625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1366,7 +1585,7 @@
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B29" s="3">
         <v>1</v>
@@ -1377,7 +1596,7 @@
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B30" s="3">
         <v>5</v>
@@ -1388,7 +1607,7 @@
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B31" s="3">
         <v>10</v>
@@ -1399,7 +1618,7 @@
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B32" s="3">
         <v>20</v>
@@ -1410,7 +1629,7 @@
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B33" s="3">
         <v>50</v>
@@ -1421,83 +1640,103 @@
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B34" t="s">
         <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B35" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" t="s">
         <v>57</v>
-      </c>
-      <c r="C35" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" t="s">
         <v>66</v>
-      </c>
-      <c r="B36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C37" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C38" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C39" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" t="s">
         <v>77</v>
       </c>
-      <c r="B40" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" t="s">
+        <v>112</v>
+      </c>
+      <c r="C41" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" t="s">
+        <v>115</v>
+      </c>
+    </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
